--- a/ResultadoEleicoesDistritos/BRAGA_VIEIRA DO MINHO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_VIEIRA DO MINHO.xlsx
@@ -597,64 +597,64 @@
         <v>3649</v>
       </c>
       <c r="H2" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I2" t="n">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="J2" t="n">
-        <v>1446</v>
+        <v>1568</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="M2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="T2" t="n">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="U2" t="n">
         <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>2367</v>
+        <v>2309</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2404</v>
+        <v>2297</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
